--- a/CONTROL DE CRONOGRAMA/MULTAS.xlsx
+++ b/CONTROL DE CRONOGRAMA/MULTAS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -11,15 +11,71 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Alexandra Ardila</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Karem Moreno</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Andres Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de Multas por integrante: </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,8 +102,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,7 +126,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Oficina">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Oficina">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,7 +234,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Oficina">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,12 +408,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B5:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2" ht="15.75">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15.75">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/CONTROL DE CRONOGRAMA/MULTAS.xlsx
+++ b/CONTROL DE CRONOGRAMA/MULTAS.xlsx
@@ -16,43 +16,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Alexandra Ardila</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Karem Moreno</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <t>Andres Marin</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de Multas por integrante: </t>
+    <t>FECHA Y HORA DE ENTREGA</t>
+  </si>
+  <si>
+    <t>09-14-2009 1PM</t>
+  </si>
+  <si>
+    <t>Entregó a tiempo</t>
+  </si>
+  <si>
+    <t>Karem Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de Multas por integrante </t>
+  </si>
+  <si>
+    <t>Valor unitario de la multa</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>No entregó a tiempo o no entregó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +71,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -81,16 +78,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -98,24 +138,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,38 +651,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:B8"/>
+  <dimension ref="B3:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:2" ht="15.75">
-      <c r="B5" s="1" t="s">
+    <row r="3" spans="2:14">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" ht="84" customHeight="1">
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" ht="15.75">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="5">
+        <f>SUM(C5:I5)*B12</f>
+        <v>3000</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75">
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="5">
+        <f>SUM(C6:I6)*B12</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="23">
+        <f>SUM(C7:I7)*B12</f>
+        <v>3000</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="26">
+        <f>SUM(J5:J7)</f>
+        <v>6000</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="17">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
